--- a/classifier/data/statistics/statistics.xlsx
+++ b/classifier/data/statistics/statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
   <si>
     <t>correlation threshold</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>doc2vec args</t>
+  </si>
+  <si>
+    <t>adj_matrix_and_add= 2,</t>
+  </si>
+  <si>
+    <t>adj_matrix_and_add= 2,weigted_randomwalk</t>
+  </si>
+  <si>
+    <t>adj_matrix_and_add= 2,rw_on_main_graph</t>
+  </si>
+  <si>
+    <t>power_graph= 2,</t>
+  </si>
+  <si>
+    <t>power_graph= 2,weigted_randomwalk</t>
+  </si>
+  <si>
+    <t>power_graph= 2,rw_on_main_graph</t>
   </si>
   <si>
     <t>{'vector_size': 10, 'window_size': 2, 'learning_rate': 0.025, 'min_learning_rate': 0.001, 'min_count': 1, 'min_vocab_size': 'None', 'workers': 4, 'epochs': 50}</t>
@@ -404,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,10 +486,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I2">
-        <v>1.264692343102655</v>
+        <v>1.265075955194108</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,10 +518,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I3">
-        <v>1.261470001534448</v>
+        <v>1.264615620684364</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,10 +550,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I4">
-        <v>3.034985422740525</v>
+        <v>3.027466625748044</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,10 +582,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I5">
-        <v>1.261239834279577</v>
+        <v>1.258554549639405</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,10 +614,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I6">
-        <v>1.265152677612398</v>
+        <v>1.26538284486727</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -628,10 +646,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I7">
-        <v>1.266226791468467</v>
+        <v>3.057388368881387</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -660,10 +678,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I8">
-        <v>3.045956728556084</v>
+        <v>1.264845787939236</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -692,10 +710,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I9">
-        <v>1.26285100506368</v>
+        <v>1.26292772748197</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -724,10 +742,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I10">
-        <v>1.264232008592911</v>
+        <v>3.017262544115391</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,10 +774,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I11">
-        <v>3.045266226791469</v>
+        <v>1.264385453429492</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -788,10 +806,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I12">
-        <v>1.26285100506368</v>
+        <v>1.266456958723339</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -820,10 +838,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I13">
-        <v>1.261009667024705</v>
+        <v>1.262083780880773</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -852,10 +870,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I14">
-        <v>3.038974988491637</v>
+        <v>3.038361209145312</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -884,10 +902,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I15">
-        <v>1.264385453429492</v>
+        <v>1.26285100506368</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -916,10 +934,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I16">
-        <v>1.261930336044192</v>
+        <v>1.262544115390517</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -948,10 +966,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I17">
-        <v>1.263388061991714</v>
+        <v>3.03444836581249</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -980,10 +998,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I18">
-        <v>3.044729169863434</v>
+        <v>1.263234617155133</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1012,10 +1030,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I19">
-        <v>1.261470001534448</v>
+        <v>1.261239834279577</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1044,10 +1062,10 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I20">
-        <v>1.262390670553936</v>
+        <v>3.04426883535369</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1061,7 +1079,6 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <f> ,rw_on_main_graph</f>
         <v>0</v>
       </c>
       <c r="E21">
@@ -1077,10 +1094,1322 @@
         <v>31.25659472422062</v>
       </c>
       <c r="I21">
-        <v>3.0466472303207</v>
+        <v>1.261163111861286</v>
       </c>
       <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>417</v>
+      </c>
+      <c r="H22">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I22">
+        <v>1.26162344637103</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>0.7</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>417</v>
+      </c>
+      <c r="H23">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I23">
+        <v>3.038514653981894</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>0.7</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>73</v>
+      </c>
+      <c r="F24">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>417</v>
+      </c>
+      <c r="H24">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I24">
+        <v>1.262007058462483</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>0.7</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>73</v>
+      </c>
+      <c r="F25">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>417</v>
+      </c>
+      <c r="H25">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I25">
+        <v>1.263311339573423</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>73</v>
+      </c>
+      <c r="F26">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>417</v>
+      </c>
+      <c r="H26">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I26">
+        <v>3.0540125824766</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>73</v>
+      </c>
+      <c r="F27">
+        <v>58</v>
+      </c>
+      <c r="G27">
+        <v>417</v>
+      </c>
+      <c r="H27">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I27">
+        <v>1.260012275586927</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>0.7</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <v>417</v>
+      </c>
+      <c r="H28">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I28">
+        <v>1.26653368114163</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>0.7</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>417</v>
+      </c>
+      <c r="H29">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I29">
+        <v>1.262237225717355</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>0.7</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>73</v>
+      </c>
+      <c r="F30">
+        <v>58</v>
+      </c>
+      <c r="G30">
+        <v>417</v>
+      </c>
+      <c r="H30">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I30">
+        <v>3.068973454043272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>0.7</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>58</v>
+      </c>
+      <c r="G31">
+        <v>417</v>
+      </c>
+      <c r="H31">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I31">
+        <v>1.266456958723339</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>0.7</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>73</v>
+      </c>
+      <c r="F32">
+        <v>58</v>
+      </c>
+      <c r="G32">
+        <v>417</v>
+      </c>
+      <c r="H32">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I32">
+        <v>1.263848396501458</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>0.7</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>58</v>
+      </c>
+      <c r="G33">
+        <v>417</v>
+      </c>
+      <c r="H33">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I33">
+        <v>3.042580942151297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>0.7</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <v>58</v>
+      </c>
+      <c r="G34">
+        <v>417</v>
+      </c>
+      <c r="H34">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I34">
+        <v>1.260702777351542</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>73</v>
+      </c>
+      <c r="F35">
+        <v>58</v>
+      </c>
+      <c r="G35">
+        <v>417</v>
+      </c>
+      <c r="H35">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I35">
+        <v>1.265689734540433</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>0.7</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>73</v>
+      </c>
+      <c r="F36">
+        <v>58</v>
+      </c>
+      <c r="G36">
+        <v>417</v>
+      </c>
+      <c r="H36">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I36">
+        <v>3.039895657511125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>0.7</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
         <v>10</v>
+      </c>
+      <c r="E37">
+        <v>73</v>
+      </c>
+      <c r="F37">
+        <v>122</v>
+      </c>
+      <c r="G37">
+        <v>417</v>
+      </c>
+      <c r="H37">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I37">
+        <v>1.479745281571275</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>0.7</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>73</v>
+      </c>
+      <c r="F38">
+        <v>122</v>
+      </c>
+      <c r="G38">
+        <v>417</v>
+      </c>
+      <c r="H38">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I38">
+        <v>1.478824612551788</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>0.7</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>73</v>
+      </c>
+      <c r="F39">
+        <v>122</v>
+      </c>
+      <c r="G39">
+        <v>417</v>
+      </c>
+      <c r="H39">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I39">
+        <v>4.604649378548411</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>0.7</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>73</v>
+      </c>
+      <c r="F40">
+        <v>122</v>
+      </c>
+      <c r="G40">
+        <v>417</v>
+      </c>
+      <c r="H40">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I40">
+        <v>1.47905477980666</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>0.7</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>73</v>
+      </c>
+      <c r="F41">
+        <v>122</v>
+      </c>
+      <c r="G41">
+        <v>417</v>
+      </c>
+      <c r="H41">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I41">
+        <v>1.478134110787172</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>0.7</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>73</v>
+      </c>
+      <c r="F42">
+        <v>122</v>
+      </c>
+      <c r="G42">
+        <v>417</v>
+      </c>
+      <c r="H42">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I42">
+        <v>4.596670247046187</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>0.7</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>73</v>
+      </c>
+      <c r="F43">
+        <v>122</v>
+      </c>
+      <c r="G43">
+        <v>417</v>
+      </c>
+      <c r="H43">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I43">
+        <v>1.479898726407856</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>0.7</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>73</v>
+      </c>
+      <c r="F44">
+        <v>122</v>
+      </c>
+      <c r="G44">
+        <v>417</v>
+      </c>
+      <c r="H44">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I44">
+        <v>1.47782722111401</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>0.7</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>73</v>
+      </c>
+      <c r="F45">
+        <v>122</v>
+      </c>
+      <c r="G45">
+        <v>417</v>
+      </c>
+      <c r="H45">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I45">
+        <v>4.60810188737149</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>73</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>417</v>
+      </c>
+      <c r="H46">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I46">
+        <v>1.068666564370109</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>73</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>417</v>
+      </c>
+      <c r="H47">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I47">
+        <v>1.068896731624981</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>417</v>
+      </c>
+      <c r="H48">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I48">
+        <v>1.459030228632807</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>73</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
+      </c>
+      <c r="G49">
+        <v>417</v>
+      </c>
+      <c r="H49">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I49">
+        <v>1.107411385606874</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>73</v>
+      </c>
+      <c r="F50">
+        <v>22</v>
+      </c>
+      <c r="G50">
+        <v>417</v>
+      </c>
+      <c r="H50">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I50">
+        <v>1.107411385606874</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B51">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>73</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51">
+        <v>417</v>
+      </c>
+      <c r="H51">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I51">
+        <v>1.631348780113549</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B52">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>73</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+      <c r="G52">
+        <v>417</v>
+      </c>
+      <c r="H52">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I52">
+        <v>1.107411385606874</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>73</v>
+      </c>
+      <c r="F53">
+        <v>22</v>
+      </c>
+      <c r="G53">
+        <v>417</v>
+      </c>
+      <c r="H53">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I53">
+        <v>1.107411385606874</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>73</v>
+      </c>
+      <c r="F54">
+        <v>22</v>
+      </c>
+      <c r="G54">
+        <v>417</v>
+      </c>
+      <c r="H54">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I54">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>73</v>
+      </c>
+      <c r="F55">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>417</v>
+      </c>
+      <c r="H55">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I55">
+        <v>1.107411385606874</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B56">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <v>417</v>
+      </c>
+      <c r="H56">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I56">
+        <v>1.107411385606874</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>73</v>
+      </c>
+      <c r="F57">
+        <v>22</v>
+      </c>
+      <c r="G57">
+        <v>417</v>
+      </c>
+      <c r="H57">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I57">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B58">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>417</v>
+      </c>
+      <c r="H58">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I58">
+        <v>1.002148227712137</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>73</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>417</v>
+      </c>
+      <c r="H59">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I59">
+        <v>1.002148227712137</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>73</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>417</v>
+      </c>
+      <c r="H60">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I60">
+        <v>1.047798066595059</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>73</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>417</v>
+      </c>
+      <c r="H61">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I61">
+        <v>1.002148227712137</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>417</v>
+      </c>
+      <c r="H62">
+        <v>31.25659472422062</v>
+      </c>
+      <c r="I62">
+        <v>1.002148227712137</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
